--- a/biology/Médecine/Maison_médicale_de_garde/Maison_médicale_de_garde.xlsx
+++ b/biology/Médecine/Maison_médicale_de_garde/Maison_médicale_de_garde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maison_m%C3%A9dicale_de_garde</t>
+          <t>Maison_médicale_de_garde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une maison médicale de garde (MMG), se définit[1] comme un lieu fixe déterminé de prestations de médecine générale, fonctionnant uniquement aux heures de la permanence des soins et assurant une activité de consultation médicale non programmée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une maison médicale de garde (MMG), se définit comme un lieu fixe déterminé de prestations de médecine générale, fonctionnant uniquement aux heures de la permanence des soins et assurant une activité de consultation médicale non programmée.
 Elle répond à un besoin précis et fonctionne sur la base d'un cahier des charges contractualisé avec la Mission Régionale de Santé (MRS). Elle s'inscrit dans l'organisation de la permanence des soins et les orientations du schéma régional d'organisation sanitaire dans ce domaine. 
 Son accès devrait être en grande partie médicalement régulé (SAMU). 
 À l'instar des autres acteurs territoriaux de la prise en charge non programmée, elle pourra également participer au réseau des urgences défini à l'article R. 6123-26. 
